--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/NEW_HAMPSHIRE_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/NEW_HAMPSHIRE_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C5">
@@ -540,7 +540,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -571,12 +571,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C15">
@@ -612,7 +612,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C17">
@@ -651,7 +651,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C20">
@@ -845,7 +845,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C33">
@@ -858,7 +858,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C34">
@@ -946,7 +946,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C40">
@@ -972,7 +972,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C42">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C51">
@@ -1166,7 +1166,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C55">
@@ -1186,7 +1186,7 @@
         <v>6</v>
       </c>
       <c r="D56">
-        <v>0.09677419354838709</v>
+        <v>0.09677419354838708</v>
       </c>
     </row>
     <row r="57">
@@ -1213,41 +1213,6 @@
       </c>
       <c r="D58">
         <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/NEW_HAMPSHIRE_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/NEW_HAMPSHIRE_2020.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Pichucalco</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Tenejapa</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -623,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Apaxtla</t>
@@ -636,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -649,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Mártir De Cuilapan</t>
@@ -662,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -675,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -706,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -719,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -732,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -763,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -794,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Total</t>
@@ -825,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Total</t>
@@ -856,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Santo Domingo De Morelos</t>
@@ -869,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Total</t>
@@ -900,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -913,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -926,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Total</t>
@@ -957,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>El Marqués</t>
@@ -970,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -983,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -996,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1027,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1058,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1089,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1120,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1151,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -1164,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Noria De Ángeles</t>
@@ -1177,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -1190,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Total</t>
